--- a/data/trans_bre/P41_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P41_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>10,37</t>
+          <t>5,67</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,08</t>
+          <t>-5,41</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,49</t>
+          <t>2,84</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>-4,97</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>71,32%</t>
+          <t>-10,17</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,32%</t>
+          <t>95,5%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>47,43%</t>
+          <t>-33,16%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>22,98%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-27,01%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-62,49%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,96; 19,63</t>
+          <t>-0,31; 10,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,72; 12,27</t>
+          <t>-24,29; 2,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 20,72</t>
+          <t>-14,13; 11,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-17,64; 13,93</t>
+          <t>-23,92; 4,48</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,95; 223,95</t>
+          <t>-34,14; 1,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-49,64; 72,81</t>
+          <t>-12,04; 311,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-31,91; 165,95</t>
+          <t>-75,18; 30,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-45,06; 68,69</t>
+          <t>-55,08; 196,9</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-73,4; 41,02</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-93,05; 32,37</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,26</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-5,98</t>
+          <t>-8,03</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-13,76</t>
+          <t>-11,02</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-9,89%</t>
+          <t>6,81</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>4,75%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-14,35%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-29,74%</t>
+          <t>-39,3%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-50,2%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>152,44%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,36; 10,94</t>
+          <t>-8,07; 8,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-14,62; 16,31</t>
+          <t>-7,22; 8,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-21,14; 7,59</t>
+          <t>-17,3; 0,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-29,39; 0,15</t>
+          <t>-20,93; -2,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-44,14; 46,34</t>
+          <t>0,33; 13,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-33,62; 60,54</t>
+          <t>-46,64; 112,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-42,18; 22,82</t>
+          <t>-41,72; 98,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-54,43; 1,96</t>
+          <t>-65,79; 3,13</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-72,64; -7,66</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-8,62; 853,16</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>36,42</t>
+          <t>16,76</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>13,16</t>
+          <t>9,97</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>21,96</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>30,06</t>
+          <t>5,37</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>248,16%</t>
+          <t>10,77</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>62,29%</t>
+          <t>434,63%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>233,22%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>316,82%</t>
+          <t>-15,95%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>90,92%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>195,62%</t>
         </is>
       </c>
     </row>
@@ -868,42 +934,52 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,87; 61,73</t>
+          <t>1,66; 34,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-20,5; 41,55</t>
+          <t>3,25; 26,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 50,37</t>
+          <t>-15,28; 8,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,63; 55,0</t>
+          <t>-7,98; 19,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-14,43; —</t>
+          <t>-7,38; 24,04</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-68,08; 625,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-63,96; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-25,36; —</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,51</t>
+          <t>4,55</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,26</t>
+          <t>-0,95</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3,15</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-3,16</t>
+          <t>-6,3</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>29,07%</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>53,52%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>-7,07%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-9,07%</t>
+          <t>-12,96%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-34,04%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-12,62%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1054,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 14,57</t>
+          <t>-0,12; 9,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,78; 10,76</t>
+          <t>-9,84; 4,7</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 12,05</t>
+          <t>-10,23; 3,75</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-14,5; 5,5</t>
+          <t>-16,75; -0,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 83,45</t>
+          <t>-17,46; 5,33</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,76; 44,65</t>
+          <t>-2,75; 150,41</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-20,06; 50,34</t>
+          <t>-47,47; 49,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-34,66; 18,83</t>
+          <t>-49,68; 34,96</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-61,97; -2,05</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-74,21; 113,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1011,9 +1114,9 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P41_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P41_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>5,67</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-5,41</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>2,84</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-4,97</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-10,17</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>95,5%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-33,16%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>22,98%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>-27,01%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-62,49%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>14.52833467852401</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>2.808722878715697</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>10.81342226704077</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.2714127884892725</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-12.0055618916399</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>1.187893316310011</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.109562385706707</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.5597572174320474</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>-0.009503262248324831</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.4372078277130665</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-0,31; 10,82</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-24,29; 2,82</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-14,13; 11,38</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-23,92; 4,48</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-34,14; 1,53</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-12,04; 311,16</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-75,18; 30,68</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-55,08; 196,9</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-73,4; 41,02</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-93,05; 32,37</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>3.137585899449383</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-17.81420761019967</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-9.758483399164765</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-25.47037251448329</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-52.87474084106019</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>0.101607286753191</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.4973817253309817</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.3440812612121836</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.606339348830465</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.890478692273975</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>26.60286686348033</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>17.77013612697584</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>23.21400112253304</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>14.36256768928854</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>6.818359952347955</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>3.899997028313282</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>1.131808032662531</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.075154744106767</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.8248212863911054</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.6415394674896825</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,19</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,17</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-8,03</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-11,02</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>6,81</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>1,47%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>8,43%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-39,3%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-50,2%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>152,44%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-8,07; 8,97</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-7,22; 8,83</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-17,3; 0,21</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-20,93; -2,34</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0,33; 13,94</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-46,64; 112,93</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-41,72; 98,31</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-65,79; 3,13</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-72,64; -7,66</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-8,62; 853,16</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>3.921323033438529</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.464341236545103</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-10.92096071121362</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-15.65342313115953</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>15.27549532716905</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>0.1397899567047572</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>0.04197807231616029</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.2723410333278583</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.3627961187925828</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>1.432331682379177</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>16,76</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>9,97</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,02</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>5,37</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>10,77</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>434,63%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-15,95%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>90,92%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>195,62%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-12.92016010809173</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-20.15631048096852</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-27.83401975407739</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-33.17831771046875</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>1.324344816397615</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.3377278800064302</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.4422610109486605</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.5668725742868884</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.6394359330553472</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.07252448136735058</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>1,66; 34,11</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>3,25; 26,01</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-15,28; 8,59</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-7,98; 19,11</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-7,38; 24,04</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>18.77478575614801</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>16.9015650994607</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>5.376570199201222</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.789246401126181</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>29.05541146729366</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.9698668868927198</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.6565646182828726</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.1853612761407803</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.07703782355582187</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>8.253287595655763</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,117 +879,215 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>4,55</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,95</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-1,96</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-6,3</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-1,32</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>53,52%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-7,07%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>-12,96%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>-34,04%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-12,62%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>37.77997796435096</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>29.40836643076958</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-7.843056882422161</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>5.356482292573025</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>14.50559343828655</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>2.603884232392895</v>
+      </c>
+      <c r="I10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.3527537204828053</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.2419658713075503</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.8766322222895966</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-0,12; 9,11</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-9,84; 4,7</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-10,23; 3,75</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-16,75; -0,4</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-17,46; 5,33</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-2,75; 150,41</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-47,47; 49,7</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-49,68; 34,96</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>-61,97; -2,05</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-74,21; 113,97</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-11.99131795295901</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>7.377947850333657</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-46.62644087827733</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-33.49372479022922</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-26.91702887911968</v>
+      </c>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
+      <c r="K11" s="6" t="inlineStr"/>
+      <c r="L11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>68.70081650032469</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>65.85736513105729</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>21.18383786951564</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>38.49433714982584</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>39.57276353218377</v>
+      </c>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+      <c r="K12" s="6" t="inlineStr"/>
+      <c r="L12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>12.19761002178583</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>3.241768346639284</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.3756051247927439</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-6.21756256969439</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>0.9459241265971557</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>0.6457907283535319</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.1143861622960992</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.01332632894519628</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.1822118365854465</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.04596331809950311</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>1.598352641634111</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-12.32910711501386</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-11.71071796469263</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-21.7311280007989</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-23.12683429244564</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.04627527128550631</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.3362342127896875</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.3419890672046453</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.490717120114232</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.6598659421166909</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>21.11231279552082</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>14.41312006026036</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>10.26506899600151</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>4.436726124072625</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>13.1126830131517</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>1.424531409031208</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.6371804912299931</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.4532923308313911</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.1772105212417761</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>1.287923958317824</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1112,13 +1095,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
